--- a/branches/riziv/StructureDefinition-MedRecordDispense.xlsx
+++ b/branches/riziv/StructureDefinition-MedRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="407">
   <si>
     <t>Path</t>
   </si>
@@ -501,20 +501,96 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
@@ -630,13 +706,6 @@
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.statusReason</t>
   </si>
   <si>
@@ -892,9 +961,6 @@
   </si>
   <si>
     <t>Maps to basedOn in Event logical model.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[moodCode=RQO]</t>
@@ -1372,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3458,10 +3524,10 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3470,48 +3536,44 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3559,39 +3621,39 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3602,10 +3664,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3614,17 +3676,15 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3661,19 +3721,19 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3685,19 +3745,19 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3705,7 +3765,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3713,10 +3773,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3728,22 +3788,24 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3785,25 +3847,25 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3815,9 +3877,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3831,26 +3893,24 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3875,34 +3935,32 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3914,16 +3972,16 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3931,15 +3989,17 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3954,13 +4014,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3987,29 +4047,31 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4024,10 +4086,10 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4041,10 +4103,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>41</v>
@@ -4066,13 +4128,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4099,13 +4161,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4123,25 +4185,25 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4155,41 +4217,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4213,13 +4277,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4237,25 +4301,25 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4267,9 +4331,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4277,31 +4341,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4327,35 +4391,37 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4364,28 +4430,26 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4394,29 +4458,27 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4441,13 +4503,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4465,13 +4527,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4480,34 +4542,32 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4516,22 +4576,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4557,13 +4617,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4581,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4596,24 +4656,24 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4627,26 +4687,24 @@
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4671,31 +4729,29 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4710,26 +4766,28 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4741,7 +4799,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4750,13 +4808,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4783,13 +4841,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4807,7 +4865,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4822,10 +4880,10 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4839,7 +4897,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4850,7 +4908,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4862,15 +4920,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4895,13 +4955,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4919,13 +4979,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4937,10 +4997,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4949,9 +5009,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4959,30 +5019,32 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5007,37 +5069,35 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5046,26 +5106,28 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5077,24 +5139,26 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5119,13 +5183,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5143,10 +5207,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -5155,59 +5219,61 @@
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5257,75 +5323,73 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5373,39 +5437,39 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5428,18 +5492,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5463,13 +5525,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5487,7 +5549,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5502,10 +5564,10 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5519,7 +5581,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5527,10 +5589,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5542,13 +5604,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5599,13 +5661,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5614,13 +5676,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5629,9 +5691,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5642,10 +5704,10 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5654,13 +5716,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5711,13 +5773,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5726,10 +5788,10 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5741,9 +5803,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5754,10 +5816,10 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -5766,17 +5828,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5825,53 +5885,53 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -5880,15 +5940,17 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5913,13 +5975,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5937,71 +5999,75 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>292</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6049,39 +6115,39 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6104,16 +6170,18 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6137,13 +6205,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -6161,7 +6229,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6179,7 +6247,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6188,12 +6256,12 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6201,7 +6269,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
@@ -6213,16 +6281,16 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6273,10 +6341,10 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -6288,24 +6356,24 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6319,7 +6387,7 @@
         <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6328,13 +6396,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6385,7 +6453,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6400,24 +6468,24 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6428,10 +6496,10 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6440,15 +6508,17 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6497,13 +6567,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6512,24 +6582,24 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6540,10 +6610,10 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -6552,13 +6622,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6585,13 +6655,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6609,13 +6679,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6627,21 +6697,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6652,10 +6722,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -6664,13 +6734,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6721,13 +6791,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -6736,24 +6806,24 @@
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6764,10 +6834,10 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6776,17 +6846,15 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6835,13 +6903,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6853,7 +6921,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -6862,12 +6930,12 @@
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6887,16 +6955,16 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6947,7 +7015,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6965,21 +7033,21 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6993,7 +7061,7 @@
         <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7002,13 +7070,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7059,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7071,38 +7139,38 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7114,17 +7182,15 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7173,43 +7239,43 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7222,26 +7288,22 @@
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7289,7 +7351,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7301,19 +7363,19 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7329,10 +7391,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7404,10 +7466,10 @@
         <v>348</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7416,10 +7478,10 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7428,12 +7490,12 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7444,10 +7506,10 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7456,15 +7518,17 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7489,13 +7553,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7513,13 +7577,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7531,21 +7595,21 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>359</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7556,10 +7620,10 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7568,13 +7632,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7601,13 +7665,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7625,13 +7689,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7643,13 +7707,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7657,7 +7721,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7668,7 +7732,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7680,13 +7744,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7737,31 +7801,31 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>371</v>
+        <v>67</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -7769,11 +7833,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>374</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7792,16 +7856,16 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7851,7 +7915,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7863,13 +7927,13 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>379</v>
+        <v>67</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -7883,11 +7947,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7900,24 +7964,26 @@
         <v>41</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>381</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -7965,7 +8031,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -7977,26 +8043,702 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AJ59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8006,7 +8748,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
